--- a/合同/测试版本/测试文档 - 副本.xlsx
+++ b/合同/测试版本/测试文档 - 副本.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_D9A406AF369A327D33AAEFC0E6765DEFE8BB9EDC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC030083-373E-411C-A4AB-C0615CA4365B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33048A8-362A-47FC-894A-B8A01EAA0625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="24510" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F19" sqref="A12:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
